--- a/trends/temp/table1.xlsx
+++ b/trends/temp/table1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>Window start year</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>Two drinking drivers</t>
+  </si>
+  <si>
+    <t>(0.001)</t>
+  </si>
+  <si>
+    <t>(0.002)</t>
+  </si>
+  <si>
+    <t>(0.003)</t>
+  </si>
+  <si>
+    <t>(0.004)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,25 +557,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4088925259138025</v>
+        <v>0.4071649390798327</v>
       </c>
       <c r="C6">
-        <v>0.4361157685943168</v>
+        <v>0.402362713833273</v>
       </c>
       <c r="D6">
-        <v>0.3930737291576618</v>
+        <v>0.355115459677525</v>
       </c>
       <c r="E6">
-        <v>0.373915534457358</v>
+        <v>0.3238118622796966</v>
       </c>
       <c r="F6">
-        <v>0.3797373659110037</v>
+        <v>0.3278250531012464</v>
       </c>
       <c r="G6">
-        <v>0.4133267440902726</v>
+        <v>0.3465941849929989</v>
       </c>
       <c r="H6">
-        <v>0.3501962277898293</v>
+        <v>0.3034327443739754</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -571,25 +583,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1214362207270009</v>
+        <v>0.3147238891919743</v>
       </c>
       <c r="C7">
-        <v>0.1636256041029687</v>
+        <v>0.3147034005106794</v>
       </c>
       <c r="D7">
-        <v>0.1926729275544553</v>
+        <v>0.3512908169279736</v>
       </c>
       <c r="E7">
-        <v>0.201956130299558</v>
+        <v>0.3441916298357615</v>
       </c>
       <c r="F7">
-        <v>0.2102942944547604</v>
+        <v>0.3157219765686576</v>
       </c>
       <c r="G7">
-        <v>0.2361749444032617</v>
+        <v>0.3447986162589572</v>
       </c>
       <c r="H7">
-        <v>0.2385533789266257</v>
+        <v>0.4156054910662538</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -597,25 +609,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4696712533591966</v>
+        <v>0.278111171728193</v>
       </c>
       <c r="C8">
-        <v>0.4002586273027145</v>
+        <v>0.2829338856560476</v>
       </c>
       <c r="D8">
-        <v>0.4142533432878829</v>
+        <v>0.2935937233945014</v>
       </c>
       <c r="E8">
-        <v>0.424128335243084</v>
+        <v>0.3319965078845419</v>
       </c>
       <c r="F8">
-        <v>0.409968339634236</v>
+        <v>0.356452970330096</v>
       </c>
       <c r="G8">
-        <v>0.3504983115064657</v>
+        <v>0.3086071987480438</v>
       </c>
       <c r="H8">
-        <v>0.411250393283545</v>
+        <v>0.2809617645597708</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -623,129 +635,249 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7046572587884664</v>
+        <v>0.716</v>
       </c>
       <c r="C9">
-        <v>0.6725265506129998</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D9">
-        <v>0.6147096255609886</v>
+        <v>0.63</v>
       </c>
       <c r="E9">
-        <v>0.6054748194863357</v>
+        <v>0.622</v>
       </c>
       <c r="F9">
-        <v>0.5987757003127288</v>
+        <v>0.62</v>
       </c>
       <c r="G9">
-        <v>0.5841607752800063</v>
+        <v>0.607</v>
       </c>
       <c r="H9">
-        <v>0.5139016448192368</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.2953427412115336</v>
-      </c>
-      <c r="C10">
-        <v>0.3274734493870002</v>
-      </c>
-      <c r="D10">
-        <v>0.3852903744390113</v>
-      </c>
-      <c r="E10">
-        <v>0.3945251805136642</v>
-      </c>
-      <c r="F10">
-        <v>0.4012242996872713</v>
-      </c>
-      <c r="G10">
-        <v>0.4158392247199936</v>
-      </c>
-      <c r="H10">
-        <v>0.4860983551807631</v>
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.5679696885685241</v>
+        <v>0.284</v>
       </c>
       <c r="C11">
-        <v>0.5453046077723946</v>
+        <v>0.315</v>
       </c>
       <c r="D11">
-        <v>0.511470215462611</v>
+        <v>0.37</v>
       </c>
       <c r="E11">
-        <v>0.4962090441375576</v>
+        <v>0.378</v>
       </c>
       <c r="F11">
-        <v>0.4864628820960699</v>
+        <v>0.38</v>
       </c>
       <c r="G11">
-        <v>0.492457930072369</v>
+        <v>0.393</v>
       </c>
       <c r="H11">
-        <v>0.4754272630632104</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.2466500323445153</v>
-      </c>
-      <c r="C12">
-        <v>0.3059993815070611</v>
-      </c>
-      <c r="D12">
-        <v>0.379531051964512</v>
-      </c>
-      <c r="E12">
-        <v>0.4093555375033848</v>
-      </c>
-      <c r="F12">
-        <v>0.4309035942223715</v>
-      </c>
-      <c r="G12">
-        <v>0.4209608509896242</v>
-      </c>
-      <c r="H12">
-        <v>0.4419004006868918</v>
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.546</v>
+      </c>
+      <c r="C13">
+        <v>0.54</v>
+      </c>
+      <c r="D13">
+        <v>0.512</v>
+      </c>
+      <c r="E13">
+        <v>0.497</v>
+      </c>
+      <c r="F13">
+        <v>0.491</v>
+      </c>
+      <c r="G13">
+        <v>0.495</v>
+      </c>
+      <c r="H13">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.238</v>
+      </c>
+      <c r="C15">
+        <v>0.29</v>
+      </c>
+      <c r="D15">
+        <v>0.36</v>
+      </c>
+      <c r="E15">
+        <v>0.387</v>
+      </c>
+      <c r="F15">
+        <v>0.403</v>
+      </c>
+      <c r="G15">
+        <v>0.395</v>
+      </c>
+      <c r="H15">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.1853802790869605</v>
-      </c>
-      <c r="C13">
-        <v>0.1486960107205443</v>
-      </c>
-      <c r="D13">
-        <v>0.1089987325728771</v>
-      </c>
-      <c r="E13">
-        <v>0.09443541835905768</v>
-      </c>
-      <c r="F13">
-        <v>0.08263352368155862</v>
-      </c>
-      <c r="G13">
-        <v>0.0865812189380068</v>
-      </c>
-      <c r="H13">
-        <v>0.08267233624989778</v>
+      <c r="B17">
+        <v>0.216</v>
+      </c>
+      <c r="C17">
+        <v>0.169</v>
+      </c>
+      <c r="D17">
+        <v>0.128</v>
+      </c>
+      <c r="E17">
+        <v>0.115</v>
+      </c>
+      <c r="F17">
+        <v>0.107</v>
+      </c>
+      <c r="G17">
+        <v>0.11</v>
+      </c>
+      <c r="H17">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
